--- a/results.xlsx
+++ b/results.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,20 +423,40 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Part Number</t>
+          <t>Manufacturing Part Number</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Distributor</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Web URL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Supplier Code</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Stock</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>MOQ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
